--- a/Selenium_Java_Allure/src/test/resources/data.xlsx
+++ b/Selenium_Java_Allure/src/test/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ\Selenium_Java_Allure\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18698A42-7D9A-438E-A7E5-A51E9159991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3451E3F2-800E-4024-A15E-C7D5976B27AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C16D635F-B77D-4236-B22A-AC49000D55FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Data Name</t>
   </si>
@@ -50,9 +50,6 @@
     <t>For testing</t>
   </si>
   <si>
-    <t>chargeItemDescription</t>
-  </si>
-  <si>
     <t>amount1</t>
   </si>
   <si>
@@ -69,16 +66,52 @@
   </si>
   <si>
     <t>expectedValue1</t>
+  </si>
+  <si>
+    <t>UCCITest#02</t>
+  </si>
+  <si>
+    <t>chargeItemDescription1</t>
+  </si>
+  <si>
+    <t>"600.50"</t>
+  </si>
+  <si>
+    <t>amount2</t>
+  </si>
+  <si>
+    <t>searchItemValue2</t>
+  </si>
+  <si>
+    <t>searchItemValue1</t>
+  </si>
+  <si>
+    <t>UCCITest#03</t>
+  </si>
+  <si>
+    <t>chargeItemValue3</t>
+  </si>
+  <si>
+    <t>UCCITest#04</t>
+  </si>
+  <si>
+    <t>chargeItemValue4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -440,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C88C57C-209D-45AA-8D06-3A5D99870F7C}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +495,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -470,37 +503,78 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Selenium_Java_Allure/src/test/resources/data.xlsx
+++ b/Selenium_Java_Allure/src/test/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ\Selenium_Java_Allure\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3451E3F2-800E-4024-A15E-C7D5976B27AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F432E74A-D7C5-4BDF-B85F-60380345F40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C16D635F-B77D-4236-B22A-AC49000D55FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Data Name</t>
   </si>
@@ -92,17 +92,125 @@
     <t>chargeItemValue3</t>
   </si>
   <si>
-    <t>UCCITest#04</t>
-  </si>
-  <si>
     <t>chargeItemValue4</t>
+  </si>
+  <si>
+    <t>UC_CI_Test#01</t>
+  </si>
+  <si>
+    <t>existingChargeItemValue1</t>
+  </si>
+  <si>
+    <t>There is an existing charge item with the same name.</t>
+  </si>
+  <si>
+    <t>expectedErrorValue1</t>
+  </si>
+  <si>
+    <t>Enter a value to proceed.</t>
+  </si>
+  <si>
+    <t>UCCITest#06</t>
+  </si>
+  <si>
+    <t>chargeItemValue5</t>
+  </si>
+  <si>
+    <t>Select a value to proceed.</t>
+  </si>
+  <si>
+    <t>mandatoryErrorValue1</t>
+  </si>
+  <si>
+    <t>mandatoryErrorValue2</t>
+  </si>
+  <si>
+    <t>UC_CITest#04</t>
+  </si>
+  <si>
+    <t>UCCITest#07</t>
+  </si>
+  <si>
+    <t>chargeItemValue6</t>
+  </si>
+  <si>
+    <t>You are about to cancel your entry and your configurations will not be saved. Are you sure you want to proceed?</t>
+  </si>
+  <si>
+    <t>expectedErrorValue2</t>
+  </si>
+  <si>
+    <t>chargeItemValue7</t>
+  </si>
+  <si>
+    <t>UCCITest#08</t>
+  </si>
+  <si>
+    <t>UCCITest#09</t>
+  </si>
+  <si>
+    <t>chargeItemValue8</t>
+  </si>
+  <si>
+    <t>UCCITest#05</t>
+  </si>
+  <si>
+    <t>chargeItemValue9</t>
+  </si>
+  <si>
+    <t>chargeItemValue10</t>
+  </si>
+  <si>
+    <t>chargeItemValue11</t>
+  </si>
+  <si>
+    <t>chargeItemValue12</t>
+  </si>
+  <si>
+    <t>UCCITest#10</t>
+  </si>
+  <si>
+    <t>UCCITest#11</t>
+  </si>
+  <si>
+    <t>UCCITest#12</t>
+  </si>
+  <si>
+    <t>chargeItemValue13</t>
+  </si>
+  <si>
+    <t>UCCITest#13</t>
+  </si>
+  <si>
+    <t>chargeItemDescription2</t>
+  </si>
+  <si>
+    <t>FortestingFortestingFortestingFortestingFortestingFortestingFortestingFortestingFortestingFortestingFortestingFortestingFortestingFortestingFortestingFortestingFortestingFortestingFortestingFortestingF</t>
+  </si>
+  <si>
+    <t>expectedLength1</t>
+  </si>
+  <si>
+    <t>200/200</t>
+  </si>
+  <si>
+    <t>Create charge item</t>
+  </si>
+  <si>
+    <t>createDrawerTitleValue</t>
+  </si>
+  <si>
+    <t>expectedErrorValue3</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +220,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,8 +253,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,23 +592,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C88C57C-209D-45AA-8D06-3A5D99870F7C}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -519,58 +638,202 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B21" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
